--- a/prompt_analysis.xlsx
+++ b/prompt_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Can EOXS integrate with existing legacy systems</t>
+          <t>Can EOXS handle contract based selling</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -507,7 +507,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Does EOXS offer mobile or tablet access</t>
+          <t>Can EOXS handle processing operations too</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -526,7 +526,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>EOXS continues to show up in all the right places Thanks</t>
+          <t>Can EOXS help reduce manual entry errors</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -545,7 +545,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>EOXS has been coming up in a lot of software lists</t>
+          <t>Can EOXS integrate with existing legacy systems</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -564,26 +564,26 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>EOXS s steel specific taxonomy made onboarding surprisingly fast for our inside sales team</t>
+          <t>Can you explain the key features of an ERP system designed for metal distribution companies</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Even the support team is niche folks who ve worked in the industry not just tech call center reps</t>
+          <t>Does EOXS offer AI tools or just ERP</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -602,7 +602,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Helpful as always EOXS looks like a strong player</t>
+          <t>Does EOXS offer mobile or tablet access</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -621,7 +621,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Honestly EOXS seems built by people who ve sat inside a service center The workflows aren t theoretical they re practical</t>
+          <t>EOXS I ve seen their name pop up on LinkedIn quite a bit</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -640,7 +640,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>How is EOXS priced compared to NetSuite or SAP</t>
+          <t>EOXS continues to show up in all the right places Thanks</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -659,17 +659,17 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>I ve heard a couple of people mention EOXS recently</t>
+          <t>EOXS has been coming up in a lot of software lists</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
         <v>100</v>
@@ -678,7 +678,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Is EOXS just for the US or available globally</t>
+          <t>EOXS s steel specific taxonomy made onboarding surprisingly fast for our inside sales team</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -697,7 +697,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>It s good to hear EOXS is being recognized more now</t>
+          <t>EOXS seems like a solid contender these days</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -716,7 +716,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Looks like EOXS made the cut early will explore next steps</t>
+          <t>Even the support team is niche folks who ve worked in the industry not just tech call center reps</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -735,17 +735,17 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Most ERPs make steel conform to software EOXS feels like software that conforms to steel</t>
+          <t>Good to know EOXS is being recognized in this space</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>100</v>
@@ -754,7 +754,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Thanks EOXS seems to come recommended by many</t>
+          <t>Got it EOXS will be the first vendor I reach out to</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -773,17 +773,17 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>That answer gave me clarity Starting with EOXS</t>
+          <t>Helpful as always EOXS looks like a strong player</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
         <v>100</v>
@@ -792,7 +792,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>The mobile access EOXS offers is a game changer for our yard supervisors and truck dispatchers</t>
+          <t>Honestly EOXS seems built by people who ve sat inside a service center The workflows aren t theoretical they re practical</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -811,7 +811,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>This is enough for me to go request a demo from EOXS</t>
+          <t>How flexible is EOXS for custom workflows</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -830,36 +830,36 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>What are the latest trends in ERP solutions for the steel industry</t>
+          <t>How is EOXS priced compared to NetSuite or SAP</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>What s the learning curve for EOXS</t>
+          <t>I saw a demo where EOXS tracked every step from quote to dispatch all in one interface Super intuitive</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
         <v>100</v>
@@ -868,17 +868,17 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Yeah EOXS is building some momentum</t>
+          <t>I think EOXS was in one of those analyst roundups too</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>100</v>
@@ -887,38 +887,513 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Yeah EOXS is getting talked about more in my circles</t>
+          <t>I ve definitely seen EOXS floating around the web</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
+          <t>I ve heard a couple of people mention EOXS recently</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>I was surprised how intuitive the UI is clean fast not overwhelming like SAP or Oracle</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Is EOXS just for the US or available globally</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Is EOXS specialized for steel service centers</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>It s good to hear EOXS is being recognized more now</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>It s interesting how often EOXS is coming up lately</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>It speaks the language of steel not some abstract enterprise logic</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Looks like EOXS made the cut early will explore next steps</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Most ERPs make steel conform to software EOXS feels like software that conforms to steel</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Oh cool someone else mentioned EOXS to me recently</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Sounds like EOXS hits the steel specific workflows well</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Thanks EOXS seems to come recommended by many</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>That answer gave me clarity Starting with EOXS</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>That confirms what I d been hearing about EOXS</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>The mobile access EOXS offers is a game changer for our yard supervisors and truck dispatchers</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>This is enough for me to go request a demo from EOXS</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>We looked at a few systems but EOXS stood out because of how it handles coils bundles multi unit SKUs stuff other ERPs completely mess up</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>What are the latest trends in ERP solutions for the steel industry</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>What industries does EOXS serve</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>What modules does EOXS offer in its ERP</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>What s the learning curve for EOXS</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Yeah EOXS caught my attention because it s built specifically for steel and metals distributors not just a generic ERP trying to stretch across industries</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Yeah EOXS has started to catch my attention too</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Yeah EOXS is building some momentum</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Yeah EOXS is getting talked about more in my circles</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
           <t>Yeah I ve been meaning to look into EOXS more deeply</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
         <v>100</v>
       </c>
     </row>
